--- a/uipath/bid to bid/Nasdaq_bidtobid/nasdaq.xlsx
+++ b/uipath/bid to bid/Nasdaq_bidtobid/nasdaq.xlsx
@@ -386,7 +386,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>-0.0086223055</x:v>
+        <x:v>-0.0021009735</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -411,7 +411,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>155.9178103</x:v>
+        <x:v>154.5734393067</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -436,7 +436,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>407</x:v>
+        <x:v>408</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -461,7 +461,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>157.3458533</x:v>
+        <x:v>158.2746068</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -486,7 +486,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>135.2331352</x:v>
+        <x:v>138.537553</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -511,7 +511,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>147.2737495</x:v>
+        <x:v>146.2804918</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -536,7 +536,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>120.2585072</x:v>
+        <x:v>116.6218119</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -561,7 +561,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44056</x:v>
+        <x:v>44057</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -586,7 +586,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44056</x:v>
+        <x:v>44057</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/uipath/bid to bid/Nasdaq_bidtobid/nasdaq.xlsx
+++ b/uipath/bid to bid/Nasdaq_bidtobid/nasdaq.xlsx
@@ -386,7 +386,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>-0.0021009735</x:v>
+        <x:v>0.0100215077</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -411,7 +411,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>154.5734393067</x:v>
+        <x:v>154.2486846069</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -436,7 +436,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -461,7 +461,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>158.2746068</x:v>
+        <x:v>157.1245791</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -486,7 +486,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>138.537553</x:v>
+        <x:v>137.7915146</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -511,7 +511,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>146.2804918</x:v>
+        <x:v>143.6645084</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -536,7 +536,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>116.6218119</x:v>
+        <x:v>116.5120026</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -561,7 +561,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44057</x:v>
+        <x:v>44060</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -586,7 +586,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44057</x:v>
+        <x:v>44060</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
